--- a/DBDiscription.xlsx
+++ b/DBDiscription.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Buzinov\Desktop\VLMDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Buzinov\Desktop\VelolineDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="8670" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="8670"/>
   </bookViews>
   <sheets>
     <sheet name="Объекты" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
   <si>
     <t>Пользователь</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>Телефон владельца</t>
   </si>
 </sst>
 </file>
@@ -573,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,28 +792,28 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
         <v>19</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>20</v>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>18</v>
-      </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
         <v>1</v>
       </c>
     </row>
@@ -1072,7 +1075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
